--- a/DimFinanceItemPL.xlsx
+++ b/DimFinanceItemPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kionk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34549B0-9F41-449B-8311-EB173D022F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63988A1-97A9-4E04-AD18-95C519CD4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>

--- a/DimFinanceItemPL.xlsx
+++ b/DimFinanceItemPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kionk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527D0F7-05BB-4EE8-9BD7-B1EC0969E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EB560B-6EAE-41C5-86C3-3A0AC52740D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="306">
   <si>
     <t>ID</t>
   </si>
@@ -937,6 +937,18 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValueSource </t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1046,6 +1058,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1350,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1361,23 +1376,24 @@
     <col min="1" max="1" width="3.73046875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.53125" customWidth="1"/>
     <col min="3" max="3" width="31.9296875" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.796875" customWidth="1"/>
-    <col min="10" max="10" width="21.86328125" customWidth="1"/>
-    <col min="11" max="11" width="29.1328125" customWidth="1"/>
-    <col min="12" max="12" width="8.46484375" customWidth="1"/>
-    <col min="13" max="13" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" customWidth="1"/>
-    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.46484375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.1328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.06640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="35" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.73046875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.3984375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1429,8 +1445,11 @@
       <c r="Q1" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -1464,8 +1483,11 @@
       <c r="Q2" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -1505,8 +1527,11 @@
       <c r="Q3" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>158</v>
       </c>
@@ -1546,8 +1571,11 @@
       <c r="Q4" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -1587,8 +1615,11 @@
       <c r="Q5" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
@@ -1628,8 +1659,11 @@
       <c r="Q6" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>161</v>
       </c>
@@ -1669,8 +1703,11 @@
       <c r="Q7" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
@@ -1710,8 +1747,11 @@
       <c r="Q8" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>163</v>
       </c>
@@ -1751,8 +1791,11 @@
       <c r="Q9" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>164</v>
       </c>
@@ -1792,8 +1835,11 @@
       <c r="Q10" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
@@ -1833,8 +1879,11 @@
       <c r="Q11" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>166</v>
       </c>
@@ -1874,8 +1923,11 @@
       <c r="Q12" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>167</v>
       </c>
@@ -1909,8 +1961,11 @@
       <c r="Q13" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>168</v>
       </c>
@@ -1950,8 +2005,11 @@
       <c r="Q14" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>169</v>
       </c>
@@ -1991,8 +2049,11 @@
       <c r="Q15" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>170</v>
       </c>
@@ -2032,8 +2093,11 @@
       <c r="Q16" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>171</v>
       </c>
@@ -2073,8 +2137,11 @@
       <c r="Q17" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>172</v>
       </c>
@@ -2114,8 +2181,11 @@
       <c r="Q18" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>173</v>
       </c>
@@ -2155,8 +2225,11 @@
       <c r="Q19" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>174</v>
       </c>
@@ -2196,8 +2269,11 @@
       <c r="Q20" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -2237,8 +2313,11 @@
       <c r="Q21" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>176</v>
       </c>
@@ -2278,8 +2357,11 @@
       <c r="Q22" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>177</v>
       </c>
@@ -2319,8 +2401,11 @@
       <c r="Q23" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>178</v>
       </c>
@@ -2351,8 +2436,11 @@
       <c r="Q24" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>195</v>
       </c>
@@ -2392,8 +2480,11 @@
       <c r="Q25" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>196</v>
       </c>
@@ -2433,8 +2524,11 @@
       <c r="Q26" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>197</v>
       </c>
@@ -2474,8 +2568,11 @@
       <c r="Q27" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>198</v>
       </c>
@@ -2515,8 +2612,11 @@
       <c r="Q28" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -2556,8 +2656,11 @@
       <c r="Q29" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>200</v>
       </c>
@@ -2597,8 +2700,11 @@
       <c r="Q30" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>201</v>
       </c>
@@ -2638,8 +2744,11 @@
       <c r="Q31" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>202</v>
       </c>
@@ -2679,8 +2788,11 @@
       <c r="Q32" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>203</v>
       </c>
@@ -2720,8 +2832,11 @@
       <c r="Q33" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
@@ -2761,8 +2876,11 @@
       <c r="Q34" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>205</v>
       </c>
@@ -2791,8 +2909,11 @@
       <c r="Q35" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>206</v>
       </c>
@@ -2832,8 +2953,11 @@
       <c r="Q36" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>207</v>
       </c>
@@ -2873,8 +2997,11 @@
       <c r="Q37" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>208</v>
       </c>
@@ -2914,8 +3041,11 @@
       <c r="Q38" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>209</v>
       </c>
@@ -2955,8 +3085,11 @@
       <c r="Q39" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>210</v>
       </c>
@@ -2996,8 +3129,11 @@
       <c r="Q40" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>211</v>
       </c>
@@ -3037,8 +3173,11 @@
       <c r="Q41" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>212</v>
       </c>
@@ -3078,8 +3217,11 @@
       <c r="Q42" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
@@ -3119,8 +3261,11 @@
       <c r="Q43" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>214</v>
       </c>
@@ -3160,8 +3305,11 @@
       <c r="Q44" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>215</v>
       </c>
@@ -3201,8 +3349,11 @@
       <c r="Q45" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>216</v>
       </c>
@@ -3236,8 +3387,11 @@
       <c r="Q46" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R46" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>217</v>
       </c>
@@ -3277,8 +3431,11 @@
       <c r="Q47" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R47" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>218</v>
       </c>
@@ -3330,8 +3487,11 @@
       <c r="Q48" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R48" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>219</v>
       </c>
@@ -3383,8 +3543,11 @@
       <c r="Q49" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R49" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>220</v>
       </c>
@@ -3436,8 +3599,11 @@
       <c r="Q50" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R50" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>221</v>
       </c>
@@ -3489,8 +3655,11 @@
       <c r="Q51" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R51" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>222</v>
       </c>
@@ -3542,8 +3711,11 @@
       <c r="Q52" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R52" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>223</v>
       </c>
@@ -3595,8 +3767,11 @@
       <c r="Q53" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R53" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>224</v>
       </c>
@@ -3648,8 +3823,11 @@
       <c r="Q54" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R54" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>225</v>
       </c>
@@ -3701,8 +3879,11 @@
       <c r="Q55" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R55" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>226</v>
       </c>
@@ -3754,8 +3935,11 @@
       <c r="Q56" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R56" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>227</v>
       </c>
@@ -3807,8 +3991,11 @@
       <c r="Q57" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R57" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>228</v>
       </c>
@@ -3848,8 +4035,11 @@
       <c r="Q58" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R58" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>229</v>
       </c>
@@ -3901,8 +4091,11 @@
       <c r="Q59" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R59" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>230</v>
       </c>
@@ -3954,8 +4147,11 @@
       <c r="Q60" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R60" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>231</v>
       </c>
@@ -3995,8 +4191,11 @@
       <c r="Q61" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R61" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>232</v>
       </c>
@@ -4048,8 +4247,11 @@
       <c r="Q62" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R62" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>233</v>
       </c>
@@ -4101,8 +4303,11 @@
       <c r="Q63" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R63" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>234</v>
       </c>
@@ -4154,8 +4359,11 @@
       <c r="Q64" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R64" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>235</v>
       </c>
@@ -4207,8 +4415,11 @@
       <c r="Q65" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R65" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>236</v>
       </c>
@@ -4248,8 +4459,11 @@
       <c r="Q66" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R66" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>237</v>
       </c>
@@ -4301,8 +4515,11 @@
       <c r="Q67" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R67" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>238</v>
       </c>
@@ -4354,8 +4571,11 @@
       <c r="Q68" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R68" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>239</v>
       </c>
@@ -4407,8 +4627,11 @@
       <c r="Q69" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R69" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>240</v>
       </c>
@@ -4460,8 +4683,11 @@
       <c r="Q70" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R70" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>241</v>
       </c>
@@ -4513,8 +4739,11 @@
       <c r="Q71" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R71" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>242</v>
       </c>
@@ -4566,8 +4795,11 @@
       <c r="Q72" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R72" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>243</v>
       </c>
@@ -4619,8 +4851,11 @@
       <c r="Q73" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R73" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>244</v>
       </c>
@@ -4672,8 +4907,11 @@
       <c r="Q74" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R74" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>245</v>
       </c>
@@ -4725,8 +4963,11 @@
       <c r="Q75" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R75" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>246</v>
       </c>
@@ -4778,8 +5019,11 @@
       <c r="Q76" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R76" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>247</v>
       </c>
@@ -4819,8 +5063,11 @@
       <c r="Q77" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R77" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>248</v>
       </c>
@@ -4872,8 +5119,11 @@
       <c r="Q78" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>249</v>
       </c>
@@ -4925,8 +5175,11 @@
       <c r="Q79" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R79" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -4978,8 +5231,11 @@
       <c r="Q80" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>251</v>
       </c>
@@ -5031,8 +5287,11 @@
       <c r="Q81" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>252</v>
       </c>
@@ -5084,8 +5343,11 @@
       <c r="Q82" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>253</v>
       </c>
@@ -5128,8 +5390,11 @@
       <c r="Q83" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>254</v>
       </c>
@@ -5181,8 +5446,11 @@
       <c r="Q84" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R84" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>179</v>
       </c>
@@ -5234,8 +5502,11 @@
       <c r="Q85" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R85" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -5287,8 +5558,11 @@
       <c r="Q86" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R86" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>181</v>
       </c>
@@ -5340,8 +5614,11 @@
       <c r="Q87" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R87" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>182</v>
       </c>
@@ -5393,8 +5670,11 @@
       <c r="Q88" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R88" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>183</v>
       </c>
@@ -5434,8 +5714,11 @@
       <c r="Q89" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R89" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>184</v>
       </c>
@@ -5487,8 +5770,11 @@
       <c r="Q90" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R90" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>185</v>
       </c>
@@ -5540,8 +5826,11 @@
       <c r="Q91" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R91" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>186</v>
       </c>
@@ -5581,8 +5870,11 @@
       <c r="Q92" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R92" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>187</v>
       </c>
@@ -5628,8 +5920,11 @@
       <c r="Q93" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R93" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>188</v>
       </c>
@@ -5681,8 +5976,11 @@
       <c r="Q94" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R94" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>189</v>
       </c>
@@ -5734,8 +6032,11 @@
       <c r="Q95" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R95" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
@@ -5775,8 +6076,11 @@
       <c r="Q96" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R96" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>191</v>
       </c>
@@ -5828,8 +6132,11 @@
       <c r="Q97" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R97" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>192</v>
       </c>
@@ -5881,8 +6188,11 @@
       <c r="Q98" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R98" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>193</v>
       </c>
@@ -5922,8 +6232,11 @@
       <c r="Q99" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R99" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>194</v>
       </c>
@@ -5975,8 +6288,11 @@
       <c r="Q100" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R100" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>255</v>
       </c>
@@ -6010,8 +6326,11 @@
       <c r="Q101" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R101" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>256</v>
       </c>
@@ -6051,8 +6370,11 @@
       <c r="Q102" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R102" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>257</v>
       </c>
@@ -6086,8 +6408,11 @@
       <c r="Q103" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R103" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>258</v>
       </c>
@@ -6127,8 +6452,11 @@
       <c r="Q104" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R104" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>259</v>
       </c>
@@ -6162,8 +6490,11 @@
       <c r="Q105" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R105" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>260</v>
       </c>
@@ -6203,8 +6534,11 @@
       <c r="Q106" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R106" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>261</v>
       </c>
@@ -6238,8 +6572,11 @@
       <c r="Q107" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R107" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>262</v>
       </c>
@@ -6270,8 +6607,11 @@
       <c r="Q108" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R108" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>263</v>
       </c>
@@ -6305,8 +6645,11 @@
       <c r="Q109" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R109" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>264</v>
       </c>
@@ -6346,8 +6689,11 @@
       <c r="Q110" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R110" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>265</v>
       </c>
@@ -6393,8 +6739,11 @@
       <c r="Q111" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R111" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>266</v>
       </c>
@@ -6428,8 +6777,11 @@
       <c r="Q112" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R112" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>267</v>
       </c>
@@ -6463,8 +6815,11 @@
       <c r="Q113" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R113" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>268</v>
       </c>
@@ -6495,8 +6850,11 @@
       <c r="Q114" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R114" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>269</v>
       </c>
@@ -6523,6 +6881,9 @@
       </c>
       <c r="Q115" s="4" t="s">
         <v>269</v>
+      </c>
+      <c r="R115" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/DimFinanceItemPL.xlsx
+++ b/DimFinanceItemPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kionk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30561FC-2F4E-4E08-B5DF-86E9E031BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8CB2BB-E458-40C5-90BC-E338BF67074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36:R45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>273</v>
